--- a/data/trans_orig/P6520-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A32A142-3DA2-46B6-951E-D4CD62A4B144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06A1B24-0D38-4AD9-82DE-B35355C53FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DBA1E09-B385-4F53-BC6B-51C5CE454306}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{286F5F63-638E-4536-A2D3-CCF064BA0936}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>43,89%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
   </si>
   <si>
     <t>56,84%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,922 +104,949 @@
     <t>28,93%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1434,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF9273C-A513-4D5C-806A-D4313A937A0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C44E3-D91A-4148-96F5-05A02475400F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1986,10 +2013,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -1998,13 +2025,13 @@
         <v>53031</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2087,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2072,13 +2099,13 @@
         <v>74717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -2087,13 +2114,13 @@
         <v>54540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -2102,13 +2129,13 @@
         <v>129258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2150,13 @@
         <v>52849</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -2138,13 +2165,13 @@
         <v>16704</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -2153,13 +2180,13 @@
         <v>69554</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2201,13 @@
         <v>31512</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2189,13 +2216,13 @@
         <v>15641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2204,13 +2231,13 @@
         <v>47154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2252,13 @@
         <v>16624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2240,13 +2267,13 @@
         <v>7681</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2255,13 +2282,13 @@
         <v>24305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2344,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2329,13 +2356,13 @@
         <v>77822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -2344,13 +2371,13 @@
         <v>65043</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -2359,13 +2386,13 @@
         <v>142865</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2407,13 @@
         <v>70709</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2395,13 +2422,13 @@
         <v>33576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -2410,13 +2437,13 @@
         <v>104285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2458,13 @@
         <v>38662</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2446,13 +2473,13 @@
         <v>13040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -2461,13 +2488,13 @@
         <v>51702</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2509,13 @@
         <v>33788</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -2497,13 +2524,13 @@
         <v>24426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -2512,13 +2539,13 @@
         <v>58214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2586,13 +2613,13 @@
         <v>67686</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2601,13 +2628,13 @@
         <v>30671</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -2616,13 +2643,13 @@
         <v>98357</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2664,13 @@
         <v>27374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2652,13 +2679,13 @@
         <v>6586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -2667,13 +2694,13 @@
         <v>33961</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2715,13 @@
         <v>8981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2703,13 +2730,13 @@
         <v>2953</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2718,13 +2745,13 @@
         <v>11934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2766,13 @@
         <v>8990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2754,13 +2781,13 @@
         <v>10216</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -2769,13 +2796,13 @@
         <v>19206</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2870,13 @@
         <v>58958</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -2858,13 +2885,13 @@
         <v>43766</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>99</v>
@@ -2873,13 +2900,13 @@
         <v>102724</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2921,13 @@
         <v>44573</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -2909,13 +2936,13 @@
         <v>22727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -2924,13 +2951,13 @@
         <v>67300</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2972,13 @@
         <v>33276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2960,13 +2987,13 @@
         <v>11517</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -2975,13 +3002,13 @@
         <v>44794</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +3023,13 @@
         <v>19210</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3011,13 +3038,13 @@
         <v>4807</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -3026,13 +3053,13 @@
         <v>24017</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3100,13 +3127,13 @@
         <v>149934</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>90</v>
@@ -3115,13 +3142,13 @@
         <v>98950</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>228</v>
@@ -3130,13 +3157,13 @@
         <v>248885</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3178,13 @@
         <v>86699</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>39</v>
@@ -3166,13 +3193,13 @@
         <v>41472</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>119</v>
@@ -3181,13 +3208,13 @@
         <v>128171</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3229,13 @@
         <v>64358</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -3217,13 +3244,13 @@
         <v>21035</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -3232,13 +3259,13 @@
         <v>85393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3280,13 @@
         <v>33937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -3268,13 +3295,13 @@
         <v>19090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>52</v>
@@ -3283,13 +3310,13 @@
         <v>53027</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3357,13 +3384,13 @@
         <v>272512</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H39" s="7">
         <v>137</v>
@@ -3372,13 +3399,13 @@
         <v>141409</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M39" s="7">
         <v>405</v>
@@ -3387,13 +3414,13 @@
         <v>413921</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3435,13 @@
         <v>109936</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -3423,13 +3450,13 @@
         <v>46325</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="M40" s="7">
         <v>151</v>
@@ -3438,13 +3465,13 @@
         <v>156261</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3486,13 @@
         <v>34137</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -3474,13 +3501,13 @@
         <v>17260</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -3489,13 +3516,13 @@
         <v>51397</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3537,13 @@
         <v>48816</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>28</v>
@@ -3525,13 +3552,13 @@
         <v>31055</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>74</v>
@@ -3540,13 +3567,13 @@
         <v>79871</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3641,13 @@
         <v>899124</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>534</v>
@@ -3629,13 +3656,13 @@
         <v>557802</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>1402</v>
@@ -3644,13 +3671,13 @@
         <v>1456926</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3692,13 @@
         <v>509953</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>139</v>
+        <v>312</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H45" s="7">
         <v>205</v>
@@ -3680,13 +3707,13 @@
         <v>210615</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>307</v>
+        <v>34</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M45" s="7">
         <v>694</v>
@@ -3695,13 +3722,13 @@
         <v>720568</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3743,13 @@
         <v>283055</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>119</v>
@@ -3731,13 +3758,13 @@
         <v>125077</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>386</v>
@@ -3746,13 +3773,13 @@
         <v>408132</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3794,13 @@
         <v>208939</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>121</v>
@@ -3782,13 +3809,13 @@
         <v>128739</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>317</v>
@@ -3797,13 +3824,13 @@
         <v>337678</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06A1B24-0D38-4AD9-82DE-B35355C53FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9BFA26-47BC-4149-BD36-81367F2D3BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{286F5F63-638E-4536-A2D3-CCF064BA0936}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57338FD8-23B7-4D25-9661-A45E3F26154D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>43,89%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
   </si>
   <si>
     <t>56,84%</t>
   </si>
   <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>28,93%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>16,75%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>10,43%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,28 +197,28 @@
     <t>46,32%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>46,27%</t>
   </si>
   <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>25,95%</t>
@@ -227,616 +227,619 @@
     <t>20,58%</t>
   </si>
   <si>
-    <t>30,81%</t>
+    <t>31,6%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>16,73%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
+    <t>13,41%</t>
+  </si>
+  <si>
     <t>20,2%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -845,208 +848,196 @@
     <t>58,55%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
   </si>
   <si>
     <t>59,91%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>66,31%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>15,09%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>23,39%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>26,15%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
     <t>16,7%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C44E3-D91A-4148-96F5-05A02475400F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6360245-E770-4C9E-B4E4-E696FC3C3DD7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2153,10 +2144,10 @@
         <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -2165,13 +2156,13 @@
         <v>16704</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -2180,13 +2171,13 @@
         <v>69554</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2192,13 @@
         <v>31512</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2216,13 +2207,13 @@
         <v>15641</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2231,13 +2222,13 @@
         <v>47154</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2243,13 @@
         <v>16624</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2267,13 +2258,13 @@
         <v>7681</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2282,13 +2273,13 @@
         <v>24305</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2335,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2356,13 +2347,13 @@
         <v>77822</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -2371,13 +2362,13 @@
         <v>65043</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -2386,13 +2377,13 @@
         <v>142865</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2398,13 @@
         <v>70709</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2422,13 +2413,13 @@
         <v>33576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -2437,13 +2428,13 @@
         <v>104285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2449,13 @@
         <v>38662</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2473,13 +2464,13 @@
         <v>13040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -2488,13 +2479,13 @@
         <v>51702</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2500,13 @@
         <v>33788</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -2524,13 +2515,13 @@
         <v>24426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -2539,13 +2530,13 @@
         <v>58214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2592,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2604,13 @@
         <v>67686</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2628,13 +2619,13 @@
         <v>30671</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -2643,13 +2634,13 @@
         <v>98357</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2655,13 @@
         <v>27374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2679,13 +2670,13 @@
         <v>6586</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -2694,13 +2685,13 @@
         <v>33961</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2706,13 @@
         <v>8981</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2730,13 +2721,13 @@
         <v>2953</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2745,13 +2736,13 @@
         <v>11934</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2757,13 @@
         <v>8990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2781,13 +2772,13 @@
         <v>10216</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -2796,13 +2787,13 @@
         <v>19206</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2849,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2870,13 +2861,13 @@
         <v>58958</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -2885,13 +2876,13 @@
         <v>43766</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>99</v>
@@ -2900,13 +2891,13 @@
         <v>102724</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2912,13 @@
         <v>44573</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -2936,13 +2927,13 @@
         <v>22727</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -2951,13 +2942,13 @@
         <v>67300</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2963,13 @@
         <v>33276</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2987,13 +2978,13 @@
         <v>11517</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -3002,13 +2993,13 @@
         <v>44794</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3014,13 @@
         <v>19210</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3038,13 +3029,13 @@
         <v>4807</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -3053,13 +3044,13 @@
         <v>24017</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3118,13 @@
         <v>149934</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>90</v>
@@ -3142,10 +3133,10 @@
         <v>98950</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>238</v>
@@ -3244,10 +3235,10 @@
         <v>21035</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>255</v>
@@ -3262,10 +3253,10 @@
         <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3271,13 @@
         <v>33937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -3295,13 +3286,13 @@
         <v>19090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>52</v>
@@ -3310,13 +3301,13 @@
         <v>53027</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3363,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3375,13 @@
         <v>272512</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>137</v>
@@ -3399,10 +3390,10 @@
         <v>141409</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>273</v>
@@ -3456,7 +3447,7 @@
         <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>151</v>
@@ -3465,13 +3456,13 @@
         <v>156261</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3477,13 @@
         <v>34137</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -3516,13 +3507,13 @@
         <v>51397</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3528,13 @@
         <v>48816</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>28</v>
@@ -3552,13 +3543,13 @@
         <v>31055</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>74</v>
@@ -3567,13 +3558,13 @@
         <v>79871</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3632,13 @@
         <v>899124</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>534</v>
@@ -3656,13 +3647,13 @@
         <v>557802</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>1402</v>
@@ -3671,13 +3662,13 @@
         <v>1456926</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3683,13 @@
         <v>509953</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H45" s="7">
         <v>205</v>
@@ -3707,10 +3698,10 @@
         <v>210615</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>315</v>
@@ -3725,10 +3716,10 @@
         <v>316</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3734,13 @@
         <v>283055</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>119</v>
@@ -3758,13 +3749,13 @@
         <v>125077</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>386</v>
@@ -3773,13 +3764,13 @@
         <v>408132</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3785,13 @@
         <v>208939</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <v>121</v>
@@ -3809,13 +3800,13 @@
         <v>128739</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>317</v>
@@ -3824,13 +3815,13 @@
         <v>337678</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,7 +3877,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9BFA26-47BC-4149-BD36-81367F2D3BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7556E61-5BC0-4FF5-A1D6-F02BE65160F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57338FD8-23B7-4D25-9661-A45E3F26154D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2418CD31-7C26-4AFE-8569-080EB9C10C33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>43,89%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>56,84%</t>
   </si>
   <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,415 +104,415 @@
     <t>28,93%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
     <t>10,54%</t>
   </si>
   <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -521,106 +521,103 @@
     <t>59,88%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>60,17%</t>
   </si>
   <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -629,109 +626,100 @@
     <t>37,79%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
   </si>
   <si>
     <t>52,85%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>28,57%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>38,2%</t>
   </si>
   <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -740,304 +728,298 @@
     <t>44,77%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>30,68%</t>
   </si>
   <si>
     <t>22,97%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>17,41%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>16,73%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6360245-E770-4C9E-B4E4-E696FC3C3DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D31911F-222A-45B7-B22F-E2E8F14F8901}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,10 +1986,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -2016,13 +1998,13 @@
         <v>53031</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2060,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2072,13 @@
         <v>74717</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -2105,13 +2087,13 @@
         <v>54540</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -2120,13 +2102,13 @@
         <v>129258</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2123,13 @@
         <v>52849</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -2156,13 +2138,13 @@
         <v>16704</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -2171,13 +2153,13 @@
         <v>69554</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2174,13 @@
         <v>31512</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2207,13 +2189,13 @@
         <v>15641</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2222,13 +2204,13 @@
         <v>47154</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2225,13 @@
         <v>16624</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2258,13 +2240,13 @@
         <v>7681</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2273,13 +2255,13 @@
         <v>24305</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2329,13 @@
         <v>77822</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -2362,13 +2344,13 @@
         <v>65043</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -2377,13 +2359,13 @@
         <v>142865</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2380,13 @@
         <v>70709</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2413,7 +2395,7 @@
         <v>33576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>136</v>
@@ -2721,13 +2703,13 @@
         <v>2953</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2736,13 +2718,13 @@
         <v>11934</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,10 +2742,10 @@
         <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2772,13 +2754,13 @@
         <v>10216</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -2787,13 +2769,13 @@
         <v>19206</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2831,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2861,13 +2843,13 @@
         <v>58958</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -2876,13 +2858,13 @@
         <v>43766</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>99</v>
@@ -2891,13 +2873,13 @@
         <v>102724</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2894,13 @@
         <v>44573</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -2927,13 +2909,13 @@
         <v>22727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -2942,13 +2924,13 @@
         <v>67300</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2945,13 @@
         <v>33276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2978,13 +2960,13 @@
         <v>11517</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -2993,13 +2975,13 @@
         <v>44794</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +2996,13 @@
         <v>19210</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3029,13 +3011,13 @@
         <v>4807</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -3044,13 +3026,13 @@
         <v>24017</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3088,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3100,13 @@
         <v>149934</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>90</v>
@@ -3133,13 +3115,13 @@
         <v>98950</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>228</v>
@@ -3148,13 +3130,13 @@
         <v>248885</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3151,13 @@
         <v>86699</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>39</v>
@@ -3184,13 +3166,13 @@
         <v>41472</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="M35" s="7">
         <v>119</v>
@@ -3199,13 +3181,13 @@
         <v>128171</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3202,13 @@
         <v>64358</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -3235,13 +3217,13 @@
         <v>21035</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -3250,13 +3232,13 @@
         <v>85393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3253,13 @@
         <v>33937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -3286,13 +3268,13 @@
         <v>19090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>52</v>
@@ -3301,13 +3283,13 @@
         <v>53027</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3375,13 +3357,13 @@
         <v>272512</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H39" s="7">
         <v>137</v>
@@ -3390,13 +3372,13 @@
         <v>141409</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>405</v>
@@ -3405,13 +3387,13 @@
         <v>413921</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3408,13 @@
         <v>109936</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -3441,13 +3423,13 @@
         <v>46325</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>151</v>
@@ -3456,13 +3438,13 @@
         <v>156261</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3459,13 @@
         <v>34137</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -3492,13 +3474,13 @@
         <v>17260</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -3507,13 +3489,13 @@
         <v>51397</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3510,13 @@
         <v>48816</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="H42" s="7">
         <v>28</v>
@@ -3543,13 +3525,13 @@
         <v>31055</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>74</v>
@@ -3558,13 +3540,13 @@
         <v>79871</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3614,13 @@
         <v>899124</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>534</v>
@@ -3647,13 +3629,13 @@
         <v>557802</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>1402</v>
@@ -3662,13 +3644,13 @@
         <v>1456926</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3665,13 @@
         <v>509953</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>311</v>
+        <v>139</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H45" s="7">
         <v>205</v>
@@ -3698,13 +3680,13 @@
         <v>210615</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M45" s="7">
         <v>694</v>
@@ -3713,13 +3695,13 @@
         <v>720568</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3716,13 @@
         <v>283055</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H46" s="7">
         <v>119</v>
@@ -3749,13 +3731,13 @@
         <v>125077</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>386</v>
@@ -3764,13 +3746,13 @@
         <v>408132</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3767,13 @@
         <v>208939</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H47" s="7">
         <v>121</v>
@@ -3800,13 +3782,13 @@
         <v>128739</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>317</v>
@@ -3815,13 +3797,13 @@
         <v>337678</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3859,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7556E61-5BC0-4FF5-A1D6-F02BE65160F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57D7430-72AF-4161-9FD1-0337F1945CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2418CD31-7C26-4AFE-8569-080EB9C10C33}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8C551BA4-F62F-4A82-A879-77CC9337E470}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D31911F-222A-45B7-B22F-E2E8F14F8901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC3A9DB-5E4D-4DFD-AB90-385546F4F7DB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
